--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Fall.120919.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Fall.120919.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1577,12 +1577,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2113,12 +2113,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2383,12 +2383,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2459,12 +2459,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2763,12 +2763,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2839,12 +2839,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3257,12 +3257,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -3717,12 +3717,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3869,12 +3869,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4021,12 +4021,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4135,12 +4135,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4325,12 +4325,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4819,12 +4819,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4857,12 +4857,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4895,12 +4895,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5237,12 +5237,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5313,12 +5313,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5351,12 +5351,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5731,12 +5731,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6187,12 +6187,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6415,12 +6415,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6567,12 +6567,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6985,12 +6985,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7023,12 +7023,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7217,12 +7217,12 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7977,12 +7977,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8015,12 +8015,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8281,12 +8281,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8433,12 +8433,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9315,12 +9315,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9505,12 +9505,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9543,12 +9543,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9619,12 +9619,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10725,12 +10725,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10881,12 +10881,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11945,12 +11945,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11983,12 +11983,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12059,12 +12059,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13125,12 +13125,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13163,12 +13163,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13695,12 +13695,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13809,12 +13809,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14455,12 +14455,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14607,12 +14607,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14645,12 +14645,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14759,12 +14759,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16127,12 +16127,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16203,12 +16203,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17419,12 +17419,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17989,12 +17989,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18521,12 +18521,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18863,12 +18863,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18977,12 +18977,12 @@
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19091,12 +19091,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19243,12 +19243,12 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19433,12 +19433,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19585,12 +19585,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19889,12 +19889,12 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20191,12 +20191,12 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20229,12 +20229,12 @@
       <c r="H520" t="inlineStr"/>
       <c r="I520" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20267,12 +20267,12 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20305,12 +20305,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20381,12 +20381,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21333,12 +21333,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21371,12 +21371,12 @@
       <c r="H550" t="inlineStr"/>
       <c r="I550" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21599,12 +21599,12 @@
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21637,12 +21637,12 @@
       <c r="H557" t="inlineStr"/>
       <c r="I557" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21713,12 +21713,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -21751,12 +21751,12 @@
       <c r="H560" t="inlineStr"/>
       <c r="I560" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22397,12 +22397,12 @@
       <c r="H577" t="inlineStr"/>
       <c r="I577" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22625,12 +22625,12 @@
       <c r="H583" t="inlineStr"/>
       <c r="I583" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22739,12 +22739,12 @@
       <c r="H586" t="inlineStr"/>
       <c r="I586" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
